--- a/DataFiles_Excel/Maps/AwardsByLocation/US/USA_Discretionary/USA_Discretionary_HHS.xlsx
+++ b/DataFiles_Excel/Maps/AwardsByLocation/US/USA_Discretionary/USA_Discretionary_HHS.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -226,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,8 +362,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -711,28 +726,31 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1090,6 +1108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1098,20 +1117,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
@@ -1125,7 +1144,7 @@
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
@@ -1137,7 +1156,7 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>

--- a/DataFiles_Excel/Maps/AwardsByLocation/US/USA_Discretionary/USA_Discretionary_HHS.xlsx
+++ b/DataFiles_Excel/Maps/AwardsByLocation/US/USA_Discretionary/USA_Discretionary_HHS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cacigcc-my.sharepoint.com/personal/ashley_smith_caci_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="6156"/>
   </bookViews>
   <sheets>
     <sheet name="USA_Discretionary_HHS" sheetId="1" r:id="rId1"/>
@@ -42,190 +42,187 @@
     <t>Total Award Amount</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Virgin Islands of the U.S.</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>ALASKA</t>
+  </si>
+  <si>
+    <t>AMERICAN SAMOA</t>
+  </si>
+  <si>
+    <t>ARIZONA</t>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>CONNECTICUT</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
+  </si>
+  <si>
+    <t>DISTRICT OF COLUMBIA</t>
+  </si>
+  <si>
+    <t>FED STATES - MICRON</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>GUAM</t>
+  </si>
+  <si>
+    <t>HAWAII</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>ILLINOIS</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>KENTUCKY</t>
+  </si>
+  <si>
+    <t>LOUISIANA</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>MARYLAND</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>MINNESOTA</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>MISSOURI</t>
+  </si>
+  <si>
+    <t>MONTANA</t>
+  </si>
+  <si>
+    <t>NEBRASKA</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>NEW JERSEY</t>
+  </si>
+  <si>
+    <t>NEW MEXICO</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>NORTH DAKOTA</t>
+  </si>
+  <si>
+    <t>NORTHERN MARIANA ISLANDS</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>OKLAHOMA</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>PUERTO RICO</t>
+  </si>
+  <si>
+    <t>REP-MARSHALL ISLAND</t>
+  </si>
+  <si>
+    <t>REPUBLIC OF PALAU</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>TENNESSEE</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>VERMONT</t>
+  </si>
+  <si>
+    <t>VIRGIN ISLANDS</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>WISCONSIN</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -726,19 +723,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,6 +740,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1111,56 +1105,56 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1171,653 +1165,653 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>863</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="8">
         <v>639886611</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="7">
         <v>336</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="8">
         <v>224825195</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
+        <v>616</v>
+      </c>
+      <c r="C12" s="8">
+        <v>367834847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8">
+        <v>12663898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>750</v>
+      </c>
+      <c r="C14" s="8">
+        <v>629223524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
+        <v>267</v>
+      </c>
+      <c r="C15" s="8">
+        <v>333393659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8">
+        <v>8995</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6663889682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1370</v>
+      </c>
+      <c r="C17" s="8">
+        <v>848738885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1455</v>
+      </c>
+      <c r="C18" s="8">
+        <v>932817927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7">
+        <v>171</v>
+      </c>
+      <c r="C19" s="8">
+        <v>132233956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7">
+        <v>246</v>
+      </c>
+      <c r="C20" s="8">
+        <v>155033342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7">
+        <v>707</v>
+      </c>
+      <c r="C21" s="8">
+        <v>790731447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>9771160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7">
+        <v>41</v>
+      </c>
+      <c r="C23" s="8">
+        <v>28920972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1679</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1639292707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1663</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1277376691</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7">
+        <v>42</v>
+      </c>
+      <c r="C26" s="8">
+        <v>20730955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7">
+        <v>229</v>
+      </c>
+      <c r="C27" s="8">
+        <v>134484243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7">
+        <v>160</v>
+      </c>
+      <c r="C28" s="8">
+        <v>167974073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2553</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1794235526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7">
+        <v>895</v>
+      </c>
+      <c r="C30" s="8">
+        <v>595742995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="7">
+        <v>612</v>
+      </c>
+      <c r="C31" s="8">
+        <v>408260145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="7">
+        <v>422</v>
+      </c>
+      <c r="C32" s="8">
+        <v>295104580</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7">
+        <v>708</v>
+      </c>
+      <c r="C33" s="8">
+        <v>517672085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="7">
+        <v>592</v>
+      </c>
+      <c r="C34" s="8">
+        <v>608546631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="7">
+        <v>308</v>
+      </c>
+      <c r="C35" s="8">
+        <v>225938079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2478</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1705241536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3">
-        <v>12663898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>761</v>
-      </c>
-      <c r="C13" s="3">
-        <v>629223524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>267</v>
-      </c>
-      <c r="C14" s="3">
-        <v>333393659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>9035</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6663889682</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1375</v>
-      </c>
-      <c r="C16" s="3">
-        <v>848738885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1456</v>
-      </c>
-      <c r="C17" s="3">
-        <v>932817927</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B37" s="8">
+        <v>5571</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3249324389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2075</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1363019993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1386</v>
+      </c>
+      <c r="C39" s="8">
+        <v>913560811</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="7">
+        <v>280</v>
+      </c>
+      <c r="C40" s="8">
+        <v>402970615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1461</v>
+      </c>
+      <c r="C41" s="8">
+        <v>958108644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="7">
+        <v>325</v>
+      </c>
+      <c r="C42" s="8">
+        <v>206802164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="7">
+        <v>434</v>
+      </c>
+      <c r="C43" s="8">
+        <v>272910460</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="7">
+        <v>231</v>
+      </c>
+      <c r="C44" s="8">
+        <v>174075357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="7">
+        <v>379</v>
+      </c>
+      <c r="C45" s="8">
+        <v>207813995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="7">
+        <v>875</v>
+      </c>
+      <c r="C46" s="8">
+        <v>743193637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="7">
+        <v>508</v>
+      </c>
+      <c r="C47" s="8">
+        <v>370036483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="8">
+        <v>2028</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1616755988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="8">
+        <v>6101</v>
+      </c>
+      <c r="C49" s="8">
+        <v>4549871585</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="8">
+        <v>2644</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1802320038</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="7">
+        <v>175</v>
+      </c>
+      <c r="C51" s="8">
+        <v>123040005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="7">
+        <v>38</v>
+      </c>
+      <c r="C52" s="8">
+        <v>13294802</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="8">
+        <v>1269</v>
+      </c>
+      <c r="C53" s="8">
+        <v>800065169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="8">
+        <v>1247</v>
+      </c>
+      <c r="C54" s="8">
+        <v>925492584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="7">
+        <v>258</v>
+      </c>
+      <c r="C55" s="8">
+        <v>224173338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="8">
+        <v>2121</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1604495290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="7">
+        <v>521</v>
+      </c>
+      <c r="C57" s="8">
+        <v>462093331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="7">
+        <v>946</v>
+      </c>
+      <c r="C58" s="8">
+        <v>637715736</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="8">
+        <v>4008</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2413337768</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="7">
+        <v>260</v>
+      </c>
+      <c r="C60" s="8">
+        <v>552018950</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
-        <v>171</v>
-      </c>
-      <c r="C18" s="3">
-        <v>132233956</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
-        <v>707</v>
-      </c>
-      <c r="C19" s="3">
-        <v>790731447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3">
-        <v>9771160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1686</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1639292707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C61" s="8">
+        <v>6232211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
-        <v>1669</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1277376691</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2">
-        <v>42</v>
-      </c>
-      <c r="C23" s="3">
-        <v>20730955</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2">
-        <v>229</v>
-      </c>
-      <c r="C24" s="3">
-        <v>134484243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2">
-        <v>162</v>
-      </c>
-      <c r="C25" s="3">
-        <v>167974073</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2564</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1794235526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2">
-        <v>896</v>
-      </c>
-      <c r="C27" s="3">
-        <v>595742995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2">
-        <v>612</v>
-      </c>
-      <c r="C28" s="3">
-        <v>408260145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2">
-        <v>422</v>
-      </c>
-      <c r="C29" s="3">
-        <v>295104580</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2">
-        <v>709</v>
-      </c>
-      <c r="C30" s="3">
-        <v>517672085</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2">
-        <v>592</v>
-      </c>
-      <c r="C31" s="3">
-        <v>608546631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2">
-        <v>309</v>
-      </c>
-      <c r="C32" s="3">
-        <v>225938079</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2">
-        <v>15</v>
-      </c>
-      <c r="C33" s="3">
-        <v>6232211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4">
-        <v>2489</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1705241536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4">
-        <v>5601</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3249324389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4">
-        <v>2081</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1363019993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1398</v>
-      </c>
-      <c r="C37" s="3">
-        <v>913560811</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2">
-        <v>280</v>
-      </c>
-      <c r="C38" s="3">
-        <v>402970615</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1463</v>
-      </c>
-      <c r="C39" s="3">
-        <v>958108644</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="2">
-        <v>325</v>
-      </c>
-      <c r="C40" s="3">
-        <v>206802164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="2">
-        <v>435</v>
-      </c>
-      <c r="C41" s="3">
-        <v>272910460</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="2">
-        <v>231</v>
-      </c>
-      <c r="C42" s="3">
-        <v>174075357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="2">
-        <v>381</v>
-      </c>
-      <c r="C43" s="3">
-        <v>207813995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="2">
-        <v>881</v>
-      </c>
-      <c r="C44" s="3">
-        <v>743193637</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="2">
-        <v>508</v>
-      </c>
-      <c r="C45" s="3">
-        <v>370036483</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="4">
-        <v>6359</v>
-      </c>
-      <c r="C46" s="3">
-        <v>4549871585</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="4">
-        <v>2651</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1802320038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="2">
-        <v>175</v>
-      </c>
-      <c r="C48" s="3">
-        <v>123040005</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="2">
-        <v>39</v>
-      </c>
-      <c r="C49" s="3">
-        <v>13294802</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="4">
-        <v>2130</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1604495290</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="2">
-        <v>526</v>
-      </c>
-      <c r="C51" s="3">
-        <v>462093331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="2">
-        <v>947</v>
-      </c>
-      <c r="C52" s="3">
-        <v>637715736</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="2">
-        <v>19</v>
-      </c>
-      <c r="C53" s="3">
+      <c r="C62" s="8">
         <v>7838712</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="4">
-        <v>4021</v>
-      </c>
-      <c r="C54" s="3">
-        <v>2413337768</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="2">
-        <v>260</v>
-      </c>
-      <c r="C55" s="3">
-        <v>552018950</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="2">
-        <v>612</v>
-      </c>
-      <c r="C56" s="3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="7">
+        <v>100</v>
+      </c>
+      <c r="C63" s="8">
+        <v>62919503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="7">
+        <v>604</v>
+      </c>
+      <c r="C64" s="8">
         <v>302031802</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="7">
         <v>693</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C65" s="8">
         <v>525389895</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="2">
-        <v>214</v>
-      </c>
-      <c r="C58" s="3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="7">
+        <v>212</v>
+      </c>
+      <c r="C66" s="8">
         <v>152855569</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="4">
-        <v>1908</v>
-      </c>
-      <c r="C59" s="3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="8">
+        <v>1513</v>
+      </c>
+      <c r="C67" s="8">
         <v>1041892512</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="4">
-        <v>3375</v>
-      </c>
-      <c r="C60" s="3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="8">
+        <v>3346</v>
+      </c>
+      <c r="C68" s="8">
         <v>3192512745</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="2">
-        <v>617</v>
-      </c>
-      <c r="C61" s="3">
-        <v>367834847</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="2">
-        <v>246</v>
-      </c>
-      <c r="C62" s="3">
-        <v>155033342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="2">
-        <v>41</v>
-      </c>
-      <c r="C63" s="3">
-        <v>28920972</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="4">
-        <v>1252</v>
-      </c>
-      <c r="C64" s="3">
-        <v>925492584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="4">
-        <v>2038</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1616755988</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="2">
-        <v>258</v>
-      </c>
-      <c r="C66" s="3">
-        <v>224173338</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="4">
-        <v>1270</v>
-      </c>
-      <c r="C67" s="3">
-        <v>800065169</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="2">
-        <v>100</v>
-      </c>
-      <c r="C68" s="3">
-        <v>62919503</v>
       </c>
     </row>
   </sheetData>
